--- a/data/trans_dic/P0901-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01912910788497434</v>
+        <v>0.01816852782326604</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02457054813280364</v>
+        <v>0.0247549543011144</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009322347579542865</v>
+        <v>0.009249681375088139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003536826073220894</v>
+        <v>0.003816423275158629</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03411474879174609</v>
+        <v>0.03236135124337468</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02784821113066599</v>
+        <v>0.02962921103551507</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01893351446424587</v>
+        <v>0.01747600842199732</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02314402196660233</v>
+        <v>0.02247994298099056</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03024710853994345</v>
+        <v>0.02955455928864849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03137327631390274</v>
+        <v>0.03193440024873043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01646646104231967</v>
+        <v>0.01755243679854624</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01453427909011945</v>
+        <v>0.01796910769215635</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05101534555222551</v>
+        <v>0.05033886345688929</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06200650989195289</v>
+        <v>0.06435460749996408</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03962798698085154</v>
+        <v>0.04038213896623709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05067613339136207</v>
+        <v>0.0592211586749937</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07463595147951944</v>
+        <v>0.07384045154929796</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07029479518572077</v>
+        <v>0.07134268412548656</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05448821293732164</v>
+        <v>0.05276102007524054</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1055498592761214</v>
+        <v>0.09368503566373573</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05525682719233115</v>
+        <v>0.05526997344383267</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05835977642190604</v>
+        <v>0.05916515857366681</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03957417093245903</v>
+        <v>0.04033842755639185</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05623439834159365</v>
+        <v>0.05884837985292467</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01924742544613977</v>
+        <v>0.01934248389599636</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02378261229339678</v>
+        <v>0.02212526590525293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02900236641899928</v>
+        <v>0.02902282430972691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0426970173961001</v>
+        <v>0.04394388223940886</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06217385362131077</v>
+        <v>0.06222459238390218</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03454419851717427</v>
+        <v>0.03440393862027739</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04339783129205991</v>
+        <v>0.04170096096845881</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03453897456329452</v>
+        <v>0.03477065796862796</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04239251054295787</v>
+        <v>0.04373254128945797</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03152086367530221</v>
+        <v>0.03159063073934329</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0405094973816844</v>
+        <v>0.04032952241417641</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04358083672443785</v>
+        <v>0.04486898632411394</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04803194170109001</v>
+        <v>0.04628101568080574</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05212010591970112</v>
+        <v>0.0518174967869397</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06430151230963631</v>
+        <v>0.0639613842828618</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1012706435260365</v>
+        <v>0.1031157196148004</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1071444566017725</v>
+        <v>0.1066733346747873</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06914874512445154</v>
+        <v>0.06905531738633883</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08278367136287976</v>
+        <v>0.08287177580904441</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07675784756157623</v>
+        <v>0.07608545474292611</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06708169738266728</v>
+        <v>0.06862565816023958</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05460276341739434</v>
+        <v>0.0538976885698804</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06710948890385121</v>
+        <v>0.0677367163338969</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07824411748377431</v>
+        <v>0.08049658868267752</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03319781768042128</v>
+        <v>0.03379831687404208</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04921527370945936</v>
+        <v>0.0480089624604323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02821049474301337</v>
+        <v>0.02942777181563454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05364381417844107</v>
+        <v>0.05184837000775619</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07154893326717042</v>
+        <v>0.0703997449676136</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09432783451956285</v>
+        <v>0.09341220547629457</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06944537825349774</v>
+        <v>0.06927576955650519</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08656643927876809</v>
+        <v>0.08409879762493044</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05805590388886974</v>
+        <v>0.05707904648049217</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07823181535802329</v>
+        <v>0.07713061559112738</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05365795769484241</v>
+        <v>0.05336758599527986</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07471292981504116</v>
+        <v>0.07446480581480491</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06565826494297575</v>
+        <v>0.0680304022245663</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08873167918841462</v>
+        <v>0.08857321767510166</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05886505672566916</v>
+        <v>0.06201417311490268</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09794067188760829</v>
+        <v>0.09659924669764562</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1149546727567422</v>
+        <v>0.1163576262585992</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1443161062997202</v>
+        <v>0.1453375615634857</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1156614956120732</v>
+        <v>0.1124318522428464</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1261793356417246</v>
+        <v>0.1252844511790712</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08437604107073522</v>
+        <v>0.08514303138515637</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1093149270472858</v>
+        <v>0.1106510590085467</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08135336361590728</v>
+        <v>0.08127022392957232</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.104962438502188</v>
+        <v>0.1056592715541425</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05205776907432172</v>
+        <v>0.05186558897710689</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06727170024163184</v>
+        <v>0.0666112511541007</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08046244201699747</v>
+        <v>0.08139465336730514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1107770128372024</v>
+        <v>0.1091117523774618</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1145772403094944</v>
+        <v>0.1132365801069724</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1289689321101163</v>
+        <v>0.1284227630143932</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1059202863363056</v>
+        <v>0.1067012120569095</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1414972457569903</v>
+        <v>0.143910711220964</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08829045963036809</v>
+        <v>0.08818310399177316</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1042648583320046</v>
+        <v>0.1029468357053644</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1012459531008376</v>
+        <v>0.1009570679701449</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1314259776960322</v>
+        <v>0.1316587034050492</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09688019522825692</v>
+        <v>0.09687693227946251</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1171320472506251</v>
+        <v>0.1145148224290685</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1321309398358797</v>
+        <v>0.1331764177047102</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1647206801336281</v>
+        <v>0.1661382707316193</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1769960545929466</v>
+        <v>0.1747309239550236</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1910644614531384</v>
+        <v>0.1918936852253754</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1633810247151075</v>
+        <v>0.1595357807308411</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1859999132911539</v>
+        <v>0.1840685730127334</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1269142278755001</v>
+        <v>0.129194607641982</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1447527782017499</v>
+        <v>0.1425929736958413</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1388949730520568</v>
+        <v>0.1384210799864798</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1687869475232237</v>
+        <v>0.1671367314865912</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1233078657676667</v>
+        <v>0.1209713320646485</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1266153230028813</v>
+        <v>0.1271653884383978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1008743669005134</v>
+        <v>0.1004681510575107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1637806467170824</v>
+        <v>0.1665815211091762</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1439421042539441</v>
+        <v>0.1433973973524943</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.247726483503992</v>
+        <v>0.2477758057688274</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2020218361436001</v>
+        <v>0.2014208744838268</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2251711109294806</v>
+        <v>0.224899693623328</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1424114289024623</v>
+        <v>0.1467288419972003</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1992895950847038</v>
+        <v>0.1983334531914351</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1633019946924918</v>
+        <v>0.1636210641679216</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.201820924327458</v>
+        <v>0.2026817356874529</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1957312740468156</v>
+        <v>0.1943324543372919</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1978775527542647</v>
+        <v>0.19585685925093</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1682936416836066</v>
+        <v>0.170093168458637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2297139825673458</v>
+        <v>0.2306153543463512</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2228942852117533</v>
+        <v>0.2232940042722524</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3394314287091457</v>
+        <v>0.3362907149918959</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2867996329878454</v>
+        <v>0.2880422297072199</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2836655846828958</v>
+        <v>0.2764046075539897</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1970519939382606</v>
+        <v>0.1967270635288921</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2586346295623584</v>
+        <v>0.256245842135955</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2153403972226454</v>
+        <v>0.2183235161046115</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2455013518699739</v>
+        <v>0.2449956075041926</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3798241940149641</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2986905344169134</v>
+        <v>0.2986905344169135</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.266505827890589</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1406971558514404</v>
+        <v>0.1433553342894441</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2135471034873785</v>
+        <v>0.2112194456280207</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1471300264657479</v>
+        <v>0.1505837750393871</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1442347480649102</v>
+        <v>0.1408549339944555</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2889358239581594</v>
+        <v>0.2894106734917834</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3475195526713315</v>
+        <v>0.3404019282973976</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3314468511854801</v>
+        <v>0.3280118732133456</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2662148336659534</v>
+        <v>0.2678288107942456</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2349362677962342</v>
+        <v>0.2333289158395794</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2942436984410798</v>
+        <v>0.2996054346920548</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.257273276493819</v>
+        <v>0.2583883415564793</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2151986695011751</v>
+        <v>0.216727467822769</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2274813785811854</v>
+        <v>0.2333168524016187</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3171036413092557</v>
+        <v>0.3226495023877826</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2375620231015508</v>
+        <v>0.2328558695580255</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2083338270270895</v>
+        <v>0.2067409025017215</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.386495787727847</v>
+        <v>0.3927035743597195</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4467795486352902</v>
+        <v>0.4475877842344806</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4328687485175562</v>
+        <v>0.4318976124995104</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3299034916070855</v>
+        <v>0.3330218710080675</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3008563498867091</v>
+        <v>0.3000862107984574</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3756175784900052</v>
+        <v>0.3726028332088546</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.325978870004647</v>
+        <v>0.3296261548131612</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2601045276643837</v>
+        <v>0.2613226525099779</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.5793217931787662</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.5650146275964414</v>
+        <v>0.5650146275964413</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.4184731190975622</v>
@@ -1513,7 +1513,7 @@
         <v>0.5016790388129621</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4803620843519957</v>
+        <v>0.4803620843519956</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2985310398319304</v>
+        <v>0.3010274508925296</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4143995843487247</v>
+        <v>0.4142116692530643</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.32504730306498</v>
+        <v>0.3281269826451996</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3109116234331497</v>
+        <v>0.3076520152236759</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3846258039037369</v>
+        <v>0.3933705210647754</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5674398004834771</v>
+        <v>0.5658249887656213</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5202195162919273</v>
+        <v>0.5222583447436669</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5293568879074267</v>
+        <v>0.5331203829390503</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3768560566742612</v>
+        <v>0.3774244353501676</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.523522626830461</v>
+        <v>0.5217727677656998</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4595732451878571</v>
+        <v>0.458425320763456</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4545209361961104</v>
+        <v>0.453631227409211</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.428852671383834</v>
+        <v>0.4252427995870643</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5486252180315128</v>
+        <v>0.5466808475007415</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4371644763309524</v>
+        <v>0.4375930785089338</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4002126881264488</v>
+        <v>0.4030090858669417</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5073416843777585</v>
+        <v>0.5063109684961075</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6689322194512339</v>
+        <v>0.6729989024760032</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6340533404396882</v>
+        <v>0.6326976391145029</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5998234817047401</v>
+        <v>0.6015792854487997</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4634224556534509</v>
+        <v>0.4628561230420393</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6071255702500351</v>
+        <v>0.6087053900811017</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5414397547640778</v>
+        <v>0.5463447491144449</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5099493027702936</v>
+        <v>0.5083628470052489</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.1047915443360537</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1362390907504479</v>
+        <v>0.1362390907504478</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1633919315485758</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08045319006463482</v>
+        <v>0.07932654752445274</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1078553968080006</v>
+        <v>0.1088186411950871</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0939726032463061</v>
+        <v>0.09418679776645994</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1253320372372146</v>
+        <v>0.1243143634798648</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1507234917242171</v>
+        <v>0.1517604175701385</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1967315831844514</v>
+        <v>0.1946451627217343</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1815419577025603</v>
+        <v>0.1807205435782121</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1971689094370952</v>
+        <v>0.1961645899983037</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1192906726415923</v>
+        <v>0.1187029444064466</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1561358389762603</v>
+        <v>0.1563569777914434</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1421947176966632</v>
+        <v>0.1418136772379116</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1654950035265162</v>
+        <v>0.1636937698425313</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1014660526857801</v>
+        <v>0.1003699306674949</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1318808105064159</v>
+        <v>0.1313541299683496</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1149660775426758</v>
+        <v>0.1149141306645992</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.14867744643235</v>
+        <v>0.1476942797834256</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1763159697134691</v>
+        <v>0.1775098810229274</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2245248433481863</v>
+        <v>0.2232502212352256</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2095469474473365</v>
+        <v>0.2095764110453334</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.21825723325394</v>
+        <v>0.2187012870297135</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1355932162914225</v>
+        <v>0.1355903025343252</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1753468811074753</v>
+        <v>0.1748981137437628</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1592546838866282</v>
+        <v>0.1592307219938988</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1814216871521063</v>
+        <v>0.1803740377201193</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9451</v>
+        <v>8976</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11159</v>
+        <v>11242</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3910</v>
+        <v>3880</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1442</v>
+        <v>1556</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15948</v>
+        <v>15129</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11981</v>
+        <v>12747</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7493</v>
+        <v>6916</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8390</v>
+        <v>8149</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29084</v>
+        <v>28418</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>27746</v>
+        <v>28242</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13424</v>
+        <v>14309</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11196</v>
+        <v>13842</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25205</v>
+        <v>24871</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28160</v>
+        <v>29226</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16622</v>
+        <v>16939</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20665</v>
+        <v>24150</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>34891</v>
+        <v>34520</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30243</v>
+        <v>30694</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21564</v>
+        <v>20880</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38263</v>
+        <v>33962</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>53132</v>
+        <v>53145</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>51612</v>
+        <v>52324</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32262</v>
+        <v>32885</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>43318</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14156</v>
+        <v>14226</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16341</v>
+        <v>15202</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17126</v>
+        <v>17138</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20362</v>
+        <v>20956</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>38889</v>
+        <v>38921</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21081</v>
+        <v>20995</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24457</v>
+        <v>23500</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17287</v>
+        <v>17403</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>57695</v>
+        <v>59519</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>40893</v>
+        <v>40984</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>46750</v>
+        <v>46542</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>42596</v>
+        <v>43855</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35327</v>
+        <v>34039</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>35811</v>
+        <v>35603</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>37970</v>
+        <v>37769</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>48295</v>
+        <v>49175</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>67018</v>
+        <v>66724</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>42198</v>
+        <v>42141</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>46652</v>
+        <v>46702</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>38418</v>
+        <v>38081</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>91297</v>
+        <v>93398</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>70838</v>
+        <v>69924</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>77447</v>
+        <v>78171</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>76475</v>
+        <v>78677</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21202</v>
+        <v>21586</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33558</v>
+        <v>32736</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18876</v>
+        <v>19690</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>33304</v>
+        <v>32189</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>49350</v>
+        <v>48558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>67053</v>
+        <v>66402</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>45930</v>
+        <v>45818</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>53856</v>
+        <v>52321</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>77122</v>
+        <v>75824</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>108954</v>
+        <v>107421</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>71391</v>
+        <v>71005</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>92866</v>
+        <v>92558</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41934</v>
+        <v>43449</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60503</v>
+        <v>60395</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39386</v>
+        <v>41493</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60805</v>
+        <v>59972</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>79289</v>
+        <v>80257</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>102587</v>
+        <v>103313</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>76497</v>
+        <v>74361</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>78501</v>
+        <v>77944</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>112086</v>
+        <v>113105</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>152244</v>
+        <v>154105</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>108239</v>
+        <v>108129</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>130466</v>
+        <v>131332</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27026</v>
+        <v>26926</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>41346</v>
+        <v>40940</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>51983</v>
+        <v>52585</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>77490</v>
+        <v>76325</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>59081</v>
+        <v>58390</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>79471</v>
+        <v>79134</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>68750</v>
+        <v>69257</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>104176</v>
+        <v>105953</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>91362</v>
+        <v>91251</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>128331</v>
+        <v>126709</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>131126</v>
+        <v>130752</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>188696</v>
+        <v>189030</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50295</v>
+        <v>50293</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>71991</v>
+        <v>70383</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>85363</v>
+        <v>86038</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>115224</v>
+        <v>116216</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>91267</v>
+        <v>90099</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>117734</v>
+        <v>118245</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>106047</v>
+        <v>103551</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>136941</v>
+        <v>135519</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>131329</v>
+        <v>133689</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>178164</v>
+        <v>175506</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>179886</v>
+        <v>179273</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>242337</v>
+        <v>239968</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>47684</v>
+        <v>46781</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>54372</v>
+        <v>54609</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>48210</v>
+        <v>48016</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>99799</v>
+        <v>101506</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>58151</v>
+        <v>57931</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>110932</v>
+        <v>110954</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>100374</v>
+        <v>100076</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>137097</v>
+        <v>136931</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>112604</v>
+        <v>116018</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>174823</v>
+        <v>173984</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>159181</v>
+        <v>159492</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>245859</v>
+        <v>246907</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>75691</v>
+        <v>75150</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>84974</v>
+        <v>84107</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>80431</v>
+        <v>81291</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>139975</v>
+        <v>140525</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>90046</v>
+        <v>90208</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>151997</v>
+        <v>150591</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>142496</v>
+        <v>143113</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>172711</v>
+        <v>168290</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>155808</v>
+        <v>155551</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>226882</v>
+        <v>224786</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>209907</v>
+        <v>212815</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>299070</v>
+        <v>298454</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>41166</v>
+        <v>41943</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>66154</v>
+        <v>65433</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>49190</v>
+        <v>50345</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>58630</v>
+        <v>57257</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>99086</v>
+        <v>99249</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>123021</v>
+        <v>120501</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>125208</v>
+        <v>123910</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>116913</v>
+        <v>117621</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>149306</v>
+        <v>148284</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>195314</v>
+        <v>198873</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>183202</v>
+        <v>183996</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>181985</v>
+        <v>183278</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>66557</v>
+        <v>68265</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>98234</v>
+        <v>99952</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>79424</v>
+        <v>77851</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>84686</v>
+        <v>84039</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>132543</v>
+        <v>134671</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>158158</v>
+        <v>158444</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>163521</v>
+        <v>163155</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>144882</v>
+        <v>146252</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>191199</v>
+        <v>190710</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>249328</v>
+        <v>247327</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>232127</v>
+        <v>234724</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>219960</v>
+        <v>220990</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>62657</v>
+        <v>63181</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>103538</v>
+        <v>103491</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>83537</v>
+        <v>84328</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>96291</v>
+        <v>95282</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>128430</v>
+        <v>131350</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>220722</v>
+        <v>220094</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>208176</v>
+        <v>208992</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>245697</v>
+        <v>247444</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>204931</v>
+        <v>205240</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>334442</v>
+        <v>333324</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>302016</v>
+        <v>301262</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>351731</v>
+        <v>351042</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>90009</v>
+        <v>89251</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>137075</v>
+        <v>136589</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>112350</v>
+        <v>112461</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>123948</v>
+        <v>124814</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>169405</v>
+        <v>169061</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>260201</v>
+        <v>261782</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>253728</v>
+        <v>253186</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>278404</v>
+        <v>279219</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>252005</v>
+        <v>251697</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>387850</v>
+        <v>388859</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>355816</v>
+        <v>359040</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>394624</v>
+        <v>393396</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>263608</v>
+        <v>259917</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>369597</v>
+        <v>372897</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>318976</v>
+        <v>319703</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>442495</v>
+        <v>438902</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>509324</v>
+        <v>512828</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>700032</v>
+        <v>692608</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>643483</v>
+        <v>640572</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>736143</v>
+        <v>732393</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>793968</v>
+        <v>790056</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1090623</v>
+        <v>1092167</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>986674</v>
+        <v>984030</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1202179</v>
+        <v>1189095</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>332458</v>
+        <v>328866</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>451926</v>
+        <v>450122</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>390235</v>
+        <v>390059</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>524917</v>
+        <v>521446</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>595806</v>
+        <v>599841</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>798929</v>
+        <v>794393</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>742748</v>
+        <v>742852</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>814877</v>
+        <v>816535</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>902473</v>
+        <v>902454</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1224813</v>
+        <v>1221679</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1105051</v>
+        <v>1104885</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1317873</v>
+        <v>1310263</v>
       </c>
     </row>
     <row r="36">
